--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DCEF71-C324-4F81-AAB7-3B1D284B599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870C187A-A448-42FD-AD36-06AEDAE75E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="L3" sheetId="4" r:id="rId1"/>
+    <sheet name="Scores" sheetId="7" r:id="rId1"/>
+    <sheet name="L3" sheetId="4" r:id="rId2"/>
+    <sheet name="L4" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'L3'!$C$6:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'L3'!$C$6:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'L4'!$C$6:$G$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="173">
   <si>
     <t>CSV is a method of JavaScript Object Notation.</t>
   </si>
@@ -281,13 +284,293 @@
   </si>
   <si>
     <t>第三课摸底测试</t>
+  </si>
+  <si>
+    <t>Lesson 4 Pre-Test</t>
+  </si>
+  <si>
+    <t>第四课摸底测试</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>What is git? Select two</t>
+  </si>
+  <si>
+    <t>git is free and open source distributed version control system</t>
+  </si>
+  <si>
+    <t>git can only be used in windows</t>
+  </si>
+  <si>
+    <t>git is used for source control</t>
+  </si>
+  <si>
+    <t>developers can work on a same file at same time concurrently</t>
+  </si>
+  <si>
+    <t>Which of the following is Not a git command?</t>
+  </si>
+  <si>
+    <t>$git pull -a</t>
+  </si>
+  <si>
+    <t>$git switch -c local_classes origin remote_branch</t>
+  </si>
+  <si>
+    <t>$git save --all</t>
+  </si>
+  <si>
+    <t>$git add .</t>
+  </si>
+  <si>
+    <t>Remaining Useful Lifetime (RUL)</t>
+  </si>
+  <si>
+    <t>Failure projection</t>
+  </si>
+  <si>
+    <t>What are three main categories of Predictive Maintenance ai modeling outputs? Select Three</t>
+  </si>
+  <si>
+    <t>Anomaly detection</t>
+  </si>
+  <si>
+    <t>Sales forecast</t>
+  </si>
+  <si>
+    <t>What are the three types of anamolies? Select 3</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Contextual</t>
+  </si>
+  <si>
+    <t>Collective</t>
+  </si>
+  <si>
+    <t>df = pd.read_csv(file_name, error_bad_line = False，sep =”\t")</t>
+  </si>
+  <si>
+    <t>Which is wrong about Pandas python libray (assume import pandas as pd)</t>
+  </si>
+  <si>
+    <t>df.to_csv(file_name, index = True)</t>
+  </si>
+  <si>
+    <t>df.summary()</t>
+  </si>
+  <si>
+    <t>df.info()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a dictionary: 
+dict = {"Boeing 747": 356, "Boeing 787": 210, "Airbus 180": 410, "Airbus 380": 410}
+write python code to sort by capacity. The values are capacity. </t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Python Programming</t>
+  </si>
+  <si>
+    <t>什么是 git?</t>
+  </si>
+  <si>
+    <t>git 是免费开源版本控制系统</t>
+  </si>
+  <si>
+    <t>git 只能用于windows</t>
+  </si>
+  <si>
+    <t>git 用雨源程序控制</t>
+  </si>
+  <si>
+    <t>不同程序员可以同时在同一个文件上改动</t>
+  </si>
+  <si>
+    <t>下面那个不是git 命令？</t>
+  </si>
+  <si>
+    <t>预测性维护智能模型的三大输出. 选三</t>
+  </si>
+  <si>
+    <t>剩余使用寿命</t>
+  </si>
+  <si>
+    <t>预测预定时间内的故障</t>
+  </si>
+  <si>
+    <t>销售预测</t>
+  </si>
+  <si>
+    <t>越长行为检测</t>
+  </si>
+  <si>
+    <t>三类异常行为。选三</t>
+  </si>
+  <si>
+    <t>点</t>
+  </si>
+  <si>
+    <t>线</t>
+  </si>
+  <si>
+    <t>语境异常</t>
+  </si>
+  <si>
+    <t>集体异常</t>
+  </si>
+  <si>
+    <t>下面那个pandas 语句是错的。 （import pandas as pd)</t>
+  </si>
+  <si>
+    <t>编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python 程序。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a dictionary: 
+dict = {"Boeing 747": 356, "Boeing 787": 210, "Airbus 180": 410, "Airbus 380": 410}
+ 给上述字典按values(值）排序. </t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>张飞龙</t>
+  </si>
+  <si>
+    <t>夏广明</t>
+  </si>
+  <si>
+    <t>于庆航</t>
+  </si>
+  <si>
+    <t>柳博</t>
+  </si>
+  <si>
+    <t>吴艳超</t>
+  </si>
+  <si>
+    <t>刘鑫瑶</t>
+  </si>
+  <si>
+    <t>陶晓南</t>
+  </si>
+  <si>
+    <t>朱赫</t>
+  </si>
+  <si>
+    <t>栾景毅</t>
+  </si>
+  <si>
+    <t>王博</t>
+  </si>
+  <si>
+    <t>杨煜</t>
+  </si>
+  <si>
+    <t>刘亚频</t>
+  </si>
+  <si>
+    <t>马赫</t>
+  </si>
+  <si>
+    <t>刘嘉洋</t>
+  </si>
+  <si>
+    <t>石智文</t>
+  </si>
+  <si>
+    <t>李连杰</t>
+  </si>
+  <si>
+    <t>梁广浩</t>
+  </si>
+  <si>
+    <t>苏成龙</t>
+  </si>
+  <si>
+    <t>冯嘉俊</t>
+  </si>
+  <si>
+    <t>王超一</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 满分：7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 满分：6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,8 +626,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,8 +669,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -468,11 +780,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -482,9 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -492,9 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -504,19 +834,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -524,14 +842,74 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,11 +1224,577 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
+  <dimension ref="A2:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="A2" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="37"/>
+      <c r="B3" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB9BD09-B159-423F-966D-93708C14D31F}">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -863,593 +1807,620 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B4" s="18"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="20"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="9" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="2:8" ht="45">
+      <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="9" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:8" ht="42.75" customHeight="1">
+      <c r="B21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="9" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="9" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="F30" s="7" t="s">
+      <c r="D30" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="F31" s="9" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="5"/>
+      <c r="F31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
         <v>61</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="F36" s="9" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="5"/>
+      <c r="F36" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="8" t="s">
         <v>65</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="F38" s="7" t="s">
+      <c r="D38" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="8" t="s">
         <v>67</v>
       </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="9" t="s">
         <v>68</v>
       </c>
       <c r="H40" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -1464,6 +2435,538 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F012C03-EDEE-41EA-B27B-E18596CBA270}">
+  <dimension ref="B2:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="48.75" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="F10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="F12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="F14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="F15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B16" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="F17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="F19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="F20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="F23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="F24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="F25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B26" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="F27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="F28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="F29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="F30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B31" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="5"/>
+      <c r="F31" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B32" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="F32" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B33" s="29"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B34" s="29"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B35" s="30"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870C187A-A448-42FD-AD36-06AEDAE75E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEC98C-B0D8-4B6A-9819-395CD25CBA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="7" r:id="rId1"/>
-    <sheet name="L3" sheetId="4" r:id="rId2"/>
-    <sheet name="L4" sheetId="6" r:id="rId3"/>
+    <sheet name="Agenda" sheetId="9" r:id="rId1"/>
+    <sheet name="Scores" sheetId="7" r:id="rId2"/>
+    <sheet name="L3" sheetId="4" r:id="rId3"/>
+    <sheet name="L4" sheetId="6" r:id="rId4"/>
+    <sheet name="L5" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'L3'!$C$6:$G$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'L4'!$C$6:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'L3'!$C$6:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'L4'!$C$6:$G$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="230">
   <si>
     <t>CSV is a method of JavaScript Object Notation.</t>
   </si>
@@ -564,13 +566,184 @@
   </si>
   <si>
     <t xml:space="preserve"> 满分：6</t>
+  </si>
+  <si>
+    <t>复习和考试检查</t>
+  </si>
+  <si>
+    <t>Review and Exam check</t>
+  </si>
+  <si>
+    <t>Lesson 20</t>
+  </si>
+  <si>
+    <t>模型部署/期末考试讲义</t>
+  </si>
+  <si>
+    <t>Model Deployment / Final Exam Handout</t>
+  </si>
+  <si>
+    <t>Lesson 19</t>
+  </si>
+  <si>
+    <t>模型部署</t>
+  </si>
+  <si>
+    <t>Model Deployment</t>
+  </si>
+  <si>
+    <t>Lesson 18</t>
+  </si>
+  <si>
+    <t>数据流、Kafka 和工程管道</t>
+  </si>
+  <si>
+    <t>Data Streaming, Kafka and Engineering Pipeline</t>
+  </si>
+  <si>
+    <t>Lesson 17</t>
+  </si>
+  <si>
+    <t>Lesson 16</t>
+  </si>
+  <si>
+    <t>故障分类 CNN/LSTM,RNN / 两类/多类</t>
+  </si>
+  <si>
+    <t>Failure Classification CNN/LSTM,RNN / Binary/Multiclassification</t>
+  </si>
+  <si>
+    <t>Lesson 15</t>
+  </si>
+  <si>
+    <t>Lesson 14</t>
+  </si>
+  <si>
+    <t>知识复习/期中考试</t>
+  </si>
+  <si>
+    <t>Knowledge Review / Mid-term Examination</t>
+  </si>
+  <si>
+    <t>Lesson 13</t>
+  </si>
+  <si>
+    <t>使用基于 LSTM/相似性模型/指数退化模型的 RUL 建模</t>
+  </si>
+  <si>
+    <t>RUL Modeling Using LSTM/Similarity based / Exponential Degradation Models</t>
+  </si>
+  <si>
+    <t>Lesson 12</t>
+  </si>
+  <si>
+    <t>Lesson 11</t>
+  </si>
+  <si>
+    <t>Lesson 10</t>
+  </si>
+  <si>
+    <t>知识回顾：统计、图书馆</t>
+  </si>
+  <si>
+    <t>Knowledge Review: Stats, Libraries</t>
+  </si>
+  <si>
+    <t>Lesson 9</t>
+  </si>
+  <si>
+    <t>特征工程</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Lesson 8</t>
+  </si>
+  <si>
+    <t>EDA/特征工程</t>
+  </si>
+  <si>
+    <t>EDA / Feature Engineering</t>
+  </si>
+  <si>
+    <t>Lesson 7</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Lesson 6</t>
+  </si>
+  <si>
+    <t>数据加载/EDA</t>
+  </si>
+  <si>
+    <t>Data Loading / EDA</t>
+  </si>
+  <si>
+    <t>Lesson 5</t>
+  </si>
+  <si>
+    <t>环境/机器学习/数据加载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment / ML / Data Loading </t>
+  </si>
+  <si>
+    <t>Lesson 4</t>
+  </si>
+  <si>
+    <t>环境 / 制造 4.0 / Pdm</t>
+  </si>
+  <si>
+    <t>Environment / Manufacturing 4.0 / Pdm</t>
+  </si>
+  <si>
+    <t>Lesson 3</t>
+  </si>
+  <si>
+    <t>Lesson 2</t>
+  </si>
+  <si>
+    <t>制造 4.0 / 预测性维护</t>
+  </si>
+  <si>
+    <t>Manufacturing 4.0 / Predictive Maintenace</t>
+  </si>
+  <si>
+    <t>Lesson 1</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>Date/ 日期</t>
+  </si>
+  <si>
+    <t>故障分类 CNN/LSTM,RNN / 两类/多类 / 异常检测</t>
+  </si>
+  <si>
+    <t>Failure Classification CNN/LSTM,RNN / Binary/Multiclassification / AnomalyDetection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnomalyDetecting/ Model Review: evaluation and fine tune </t>
+  </si>
+  <si>
+    <t>异常检测， 模型审查：评估和微调</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,8 +822,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +853,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -845,6 +1038,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,9 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -899,17 +1104,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,11 +1430,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
+  <dimension ref="B2:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="41">
+        <v>44800</v>
+      </c>
+      <c r="D3" s="41">
+        <f>+C3+1</f>
+        <v>44801</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="41">
+        <f>+C3+7</f>
+        <v>44807</v>
+      </c>
+      <c r="D4" s="41">
+        <f>+C4+1</f>
+        <v>44808</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="41">
+        <f>+C4+21</f>
+        <v>44828</v>
+      </c>
+      <c r="D5" s="41">
+        <f>+C5+1</f>
+        <v>44829</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="41">
+        <f>+C5+7</f>
+        <v>44835</v>
+      </c>
+      <c r="D6" s="41">
+        <f>+C6+1</f>
+        <v>44836</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="39">
+        <f>+C5+8</f>
+        <v>44836</v>
+      </c>
+      <c r="D7" s="39">
+        <f>+C7+1</f>
+        <v>44837</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="39">
+        <f>+C6+7</f>
+        <v>44842</v>
+      </c>
+      <c r="D8" s="39">
+        <f>+C8+1</f>
+        <v>44843</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="39">
+        <f>+C7+7</f>
+        <v>44843</v>
+      </c>
+      <c r="D9" s="39">
+        <f>+C9+1</f>
+        <v>44844</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="39">
+        <f>+C8+7</f>
+        <v>44849</v>
+      </c>
+      <c r="D10" s="39">
+        <f>+C10+1</f>
+        <v>44850</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="39">
+        <f>+C9+7</f>
+        <v>44850</v>
+      </c>
+      <c r="D11" s="39">
+        <f>+C11+1</f>
+        <v>44851</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="39">
+        <f>+C10+7</f>
+        <v>44856</v>
+      </c>
+      <c r="D12" s="39">
+        <f>+C12+1</f>
+        <v>44857</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="39">
+        <f>+C11+7</f>
+        <v>44857</v>
+      </c>
+      <c r="D13" s="39">
+        <f>+C13+1</f>
+        <v>44858</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="39">
+        <f>+C12+7</f>
+        <v>44863</v>
+      </c>
+      <c r="D14" s="39">
+        <f>+C14+1</f>
+        <v>44864</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="39">
+        <f>+C13+7</f>
+        <v>44864</v>
+      </c>
+      <c r="D15" s="39">
+        <f>+C15+1</f>
+        <v>44865</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="39">
+        <f>+C14+7</f>
+        <v>44870</v>
+      </c>
+      <c r="D16" s="39">
+        <f>+C16+1</f>
+        <v>44871</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30">
+      <c r="B17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="39">
+        <f>+C15+7</f>
+        <v>44871</v>
+      </c>
+      <c r="D17" s="39">
+        <f>+C17+1</f>
+        <v>44872</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="39">
+        <f>+C16+7</f>
+        <v>44877</v>
+      </c>
+      <c r="D18" s="39">
+        <f>+C18+1</f>
+        <v>44878</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="39">
+        <f>+C17+7</f>
+        <v>44878</v>
+      </c>
+      <c r="D19" s="39">
+        <f>+C19+1</f>
+        <v>44879</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="39">
+        <f>+C18+7</f>
+        <v>44884</v>
+      </c>
+      <c r="D20" s="39">
+        <f>+C20+1</f>
+        <v>44885</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="39">
+        <f>+C19+7</f>
+        <v>44885</v>
+      </c>
+      <c r="D21" s="39">
+        <f>+C21+1</f>
+        <v>44886</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="39">
+        <f>+C20+7</f>
+        <v>44891</v>
+      </c>
+      <c r="D22" s="39">
+        <f>+C22+1</f>
+        <v>44892</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" s="38"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
   <dimension ref="A2:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1237,91 +1874,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="37"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="4"/>
@@ -1344,7 +1981,7 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="4"/>
@@ -1367,7 +2004,7 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="17" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="4"/>
@@ -1390,7 +2027,7 @@
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="4"/>
@@ -1413,7 +2050,7 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="17" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="4"/>
@@ -1436,7 +2073,7 @@
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="17" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="4"/>
@@ -1459,7 +2096,7 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B10" s="4"/>
@@ -1482,7 +2119,7 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B11" s="4"/>
@@ -1505,7 +2142,7 @@
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="17" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="4"/>
@@ -1528,7 +2165,7 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B13" s="4"/>
@@ -1551,7 +2188,7 @@
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B14" s="4"/>
@@ -1574,7 +2211,7 @@
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B15" s="4"/>
@@ -1597,7 +2234,7 @@
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B16" s="4"/>
@@ -1620,7 +2257,7 @@
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B17" s="4"/>
@@ -1643,7 +2280,7 @@
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="17" t="s">
         <v>147</v>
       </c>
       <c r="B18" s="4"/>
@@ -1666,7 +2303,7 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B19" s="4"/>
@@ -1689,7 +2326,7 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="17" t="s">
         <v>149</v>
       </c>
       <c r="B20" s="4"/>
@@ -1712,7 +2349,7 @@
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B21" s="4"/>
@@ -1735,7 +2372,7 @@
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="17" t="s">
         <v>151</v>
       </c>
       <c r="B22" s="4"/>
@@ -1758,7 +2395,7 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="4"/>
@@ -1789,12 +2426,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB9BD09-B159-423F-966D-93708C14D31F}">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C36"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -1807,28 +2444,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -1840,31 +2477,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -1890,7 +2527,7 @@
       <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1899,7 +2536,7 @@
       <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1936,15 +2573,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -1986,7 +2623,7 @@
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1995,7 +2632,7 @@
       <c r="G14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2016,15 +2653,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -2034,7 +2671,7 @@
       <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -2043,7 +2680,7 @@
       <c r="G17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2096,15 +2733,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="22"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -2114,7 +2751,7 @@
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2123,7 +2760,7 @@
       <c r="G22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2150,7 +2787,7 @@
       <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -2159,7 +2796,7 @@
       <c r="G24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2180,15 +2817,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -2246,7 +2883,7 @@
       <c r="C30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -2255,20 +2892,20 @@
       <c r="G30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -2310,7 +2947,7 @@
       <c r="C34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -2319,7 +2956,7 @@
       <c r="G34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2340,15 +2977,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="22"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -2374,7 +3011,7 @@
       <c r="C38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2383,7 +3020,7 @@
       <c r="G38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2446,12 +3083,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F012C03-EDEE-41EA-B27B-E18596CBA270}">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -2464,28 +3101,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -2497,31 +3134,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -2589,15 +3226,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -2665,15 +3302,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -2741,15 +3378,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="22"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -2817,15 +3454,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -2893,55 +3530,55 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="29" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B33" s="29"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="4"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B34" s="29"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B35" s="30"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="27"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="4"/>
     </row>
   </sheetData>
@@ -2960,14 +3597,28 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED657F-80AA-45F7-9EF7-30C4B7A416C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEC98C-B0D8-4B6A-9819-395CD25CBA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684DB233-41AB-42EE-82F9-2B479F48C6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
-    <sheet name="Scores" sheetId="7" r:id="rId2"/>
-    <sheet name="L3" sheetId="4" r:id="rId3"/>
-    <sheet name="L4" sheetId="6" r:id="rId4"/>
-    <sheet name="L5" sheetId="8" r:id="rId5"/>
+    <sheet name="Flashcard" sheetId="10" r:id="rId2"/>
+    <sheet name="Scores" sheetId="7" r:id="rId3"/>
+    <sheet name="L3" sheetId="4" r:id="rId4"/>
+    <sheet name="L4_5" sheetId="6" r:id="rId5"/>
+    <sheet name="L6" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'L3'!$C$6:$G$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'L4'!$C$6:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'L3'!$C$6:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">L4_5!$C$6:$G$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="285">
   <si>
     <t>CSV is a method of JavaScript Object Notation.</t>
   </si>
@@ -737,13 +738,185 @@
   </si>
   <si>
     <t>异常检测， 模型审查：评估和微调</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>DataFrame</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git pull </t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>open source libraries</t>
+  </si>
+  <si>
+    <t>开源工具库</t>
+  </si>
+  <si>
+    <t>类似数据表，功能强大</t>
+  </si>
+  <si>
+    <t>一个常用开源工具。DataFrame 是它的核心</t>
+  </si>
+  <si>
+    <t>用 git 从远程库下载到本机</t>
+  </si>
+  <si>
+    <t>boxplot:</t>
+  </si>
+  <si>
+    <t>盒型图.  通过显示数据四分位数（或百分位数）直观地显示数值数据的分布和偏度</t>
+  </si>
+  <si>
+    <t>正则表达式。看字符串符不符合你想查看样式</t>
+  </si>
+  <si>
+    <t>绘图用开源工具</t>
+  </si>
+  <si>
+    <t>把本机改动先暂时储藏起来</t>
+  </si>
+  <si>
+    <t>1) Descriptive statistics</t>
+  </si>
+  <si>
+    <t>Measure of frequency</t>
+  </si>
+  <si>
+    <t>Measure of dispersion</t>
+  </si>
+  <si>
+    <t>Measure of central tendency</t>
+  </si>
+  <si>
+    <t>Measure of position</t>
+  </si>
+  <si>
+    <t>2) Inferential statistics</t>
+  </si>
+  <si>
+    <t>hypothesis tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidence intervals </t>
+  </si>
+  <si>
+    <t>regression analysis</t>
+  </si>
+  <si>
+    <t>B) Types of Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Numerical Data – </t>
+  </si>
+  <si>
+    <t>2) Categorical Data –</t>
+  </si>
+  <si>
+    <t>1) 描述性统计</t>
+  </si>
+  <si>
+    <t>频率测量</t>
+  </si>
+  <si>
+    <t>分散测量</t>
+  </si>
+  <si>
+    <t>集中趋势的度量</t>
+  </si>
+  <si>
+    <t>位置测量</t>
+  </si>
+  <si>
+    <t>2) 推论统计</t>
+  </si>
+  <si>
+    <t>假设检验</t>
+  </si>
+  <si>
+    <t>置信区间</t>
+  </si>
+  <si>
+    <t>回归分析</t>
+  </si>
+  <si>
+    <t>B) 数据类型</t>
+  </si>
+  <si>
+    <t>1) 数值数据 –</t>
+  </si>
+  <si>
+    <t>2) 分类数据——</t>
+  </si>
+  <si>
+    <t>A) Statistics and Its types</t>
+  </si>
+  <si>
+    <t>统计及其类型</t>
+  </si>
+  <si>
+    <t>Discrete Numerical variables:  for example, world population rank</t>
+  </si>
+  <si>
+    <t>Continuous Numeric variable: for example, travel distance</t>
+  </si>
+  <si>
+    <t>Ordinal Variables – example a grade of student(A, B, C), high, medium, and low.</t>
+  </si>
+  <si>
+    <t>Nominal Variables –  colour name, subjects, etc.</t>
+  </si>
+  <si>
+    <t>离散数值变量：例如，世界人口排名</t>
+  </si>
+  <si>
+    <t>连续数值变量：例如，行驶距离</t>
+  </si>
+  <si>
+    <t>序数变量——例如学生的年级（A、B、C）、高、中、低。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 名义变量——颜色名称、主题等。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def get_file_paths_(self):',
+ 'def unzip_files(self, zip_file_name = None,  remove_zipped = False):',
+ 'def list_data_files(self):',
+ 'def get_files_regex(self, file_name_str = "test"):',
+ 'def read_data_files(self, file_name_str = "train", use_pd = True, sep = " ", columns = None):',
+ 'def read_result(self, file_name_str = "RUL_FD", use_pd = True, sep = " ", columns = None):',
+ 'def prepare_dfs(self, use_pd = True, sep = " "):'
+</t>
+  </si>
+  <si>
+    <t>Lesson 6 Pre-Test 第六课课前摸底测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please describe how these functions are being called.  / 复习上课内容后，请描述以上函数的调用关系. </t>
+  </si>
+  <si>
+    <t>The following are the function that we made for data loading. / 以下是我们上两趟课用于上载数据的函数。</t>
+  </si>
+  <si>
+    <t>Answer / 答案：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,8 +1003,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +1076,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1046,6 +1263,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1104,18 +1334,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1446,92 +1687,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15.75">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="23" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="22">
         <v>44800</v>
       </c>
-      <c r="D3" s="41">
-        <f>+C3+1</f>
+      <c r="D3" s="22">
+        <f t="shared" ref="D3:D22" si="0">+C3+1</f>
         <v>44801</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="22">
         <f>+C3+7</f>
         <v>44807</v>
       </c>
-      <c r="D4" s="41">
-        <f>+C4+1</f>
+      <c r="D4" s="22">
+        <f t="shared" si="0"/>
         <v>44808</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="21" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="22">
         <f>+C4+21</f>
         <v>44828</v>
       </c>
-      <c r="D5" s="41">
-        <f>+C5+1</f>
+      <c r="D5" s="22">
+        <f t="shared" si="0"/>
         <v>44829</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="21" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="22">
         <f>+C5+7</f>
         <v>44835</v>
       </c>
-      <c r="D6" s="41">
-        <f>+C6+1</f>
+      <c r="D6" s="22">
+        <f t="shared" si="0"/>
         <v>44836</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="21" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1539,12 +1780,12 @@
       <c r="B7" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="20">
         <f>+C5+8</f>
         <v>44836</v>
       </c>
-      <c r="D7" s="39">
-        <f>+C7+1</f>
+      <c r="D7" s="20">
+        <f t="shared" si="0"/>
         <v>44837</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1558,12 +1799,12 @@
       <c r="B8" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="39">
-        <f>+C6+7</f>
+      <c r="C8" s="20">
+        <f t="shared" ref="C8:C22" si="1">+C6+7</f>
         <v>44842</v>
       </c>
-      <c r="D8" s="39">
-        <f>+C8+1</f>
+      <c r="D8" s="20">
+        <f t="shared" si="0"/>
         <v>44843</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1577,12 +1818,12 @@
       <c r="B9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="39">
-        <f>+C7+7</f>
+      <c r="C9" s="20">
+        <f t="shared" si="1"/>
         <v>44843</v>
       </c>
-      <c r="D9" s="39">
-        <f>+C9+1</f>
+      <c r="D9" s="20">
+        <f t="shared" si="0"/>
         <v>44844</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1596,12 +1837,12 @@
       <c r="B10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="39">
-        <f>+C8+7</f>
+      <c r="C10" s="20">
+        <f t="shared" si="1"/>
         <v>44849</v>
       </c>
-      <c r="D10" s="39">
-        <f>+C10+1</f>
+      <c r="D10" s="20">
+        <f t="shared" si="0"/>
         <v>44850</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1615,12 +1856,12 @@
       <c r="B11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="39">
-        <f>+C9+7</f>
+      <c r="C11" s="20">
+        <f t="shared" si="1"/>
         <v>44850</v>
       </c>
-      <c r="D11" s="39">
-        <f>+C11+1</f>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
         <v>44851</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1634,12 +1875,12 @@
       <c r="B12" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="39">
-        <f>+C10+7</f>
+      <c r="C12" s="20">
+        <f t="shared" si="1"/>
         <v>44856</v>
       </c>
-      <c r="D12" s="39">
-        <f>+C12+1</f>
+      <c r="D12" s="20">
+        <f t="shared" si="0"/>
         <v>44857</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1653,12 +1894,12 @@
       <c r="B13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="39">
-        <f>+C11+7</f>
+      <c r="C13" s="20">
+        <f t="shared" si="1"/>
         <v>44857</v>
       </c>
-      <c r="D13" s="39">
-        <f>+C13+1</f>
+      <c r="D13" s="20">
+        <f t="shared" si="0"/>
         <v>44858</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1672,12 +1913,12 @@
       <c r="B14" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="39">
-        <f>+C12+7</f>
+      <c r="C14" s="20">
+        <f t="shared" si="1"/>
         <v>44863</v>
       </c>
-      <c r="D14" s="39">
-        <f>+C14+1</f>
+      <c r="D14" s="20">
+        <f t="shared" si="0"/>
         <v>44864</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1691,12 +1932,12 @@
       <c r="B15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="39">
-        <f>+C13+7</f>
+      <c r="C15" s="20">
+        <f t="shared" si="1"/>
         <v>44864</v>
       </c>
-      <c r="D15" s="39">
-        <f>+C15+1</f>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
         <v>44865</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1710,12 +1951,12 @@
       <c r="B16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="39">
-        <f>+C14+7</f>
+      <c r="C16" s="20">
+        <f t="shared" si="1"/>
         <v>44870</v>
       </c>
-      <c r="D16" s="39">
-        <f>+C16+1</f>
+      <c r="D16" s="20">
+        <f t="shared" si="0"/>
         <v>44871</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1729,12 +1970,12 @@
       <c r="B17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="39">
-        <f>+C15+7</f>
+      <c r="C17" s="20">
+        <f t="shared" si="1"/>
         <v>44871</v>
       </c>
-      <c r="D17" s="39">
-        <f>+C17+1</f>
+      <c r="D17" s="20">
+        <f t="shared" si="0"/>
         <v>44872</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1748,12 +1989,12 @@
       <c r="B18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="39">
-        <f>+C16+7</f>
+      <c r="C18" s="20">
+        <f t="shared" si="1"/>
         <v>44877</v>
       </c>
-      <c r="D18" s="39">
-        <f>+C18+1</f>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
         <v>44878</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1767,12 +2008,12 @@
       <c r="B19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="39">
-        <f>+C17+7</f>
+      <c r="C19" s="20">
+        <f t="shared" si="1"/>
         <v>44878</v>
       </c>
-      <c r="D19" s="39">
-        <f>+C19+1</f>
+      <c r="D19" s="20">
+        <f t="shared" si="0"/>
         <v>44879</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1786,12 +2027,12 @@
       <c r="B20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="39">
-        <f>+C18+7</f>
+      <c r="C20" s="20">
+        <f t="shared" si="1"/>
         <v>44884</v>
       </c>
-      <c r="D20" s="39">
-        <f>+C20+1</f>
+      <c r="D20" s="20">
+        <f t="shared" si="0"/>
         <v>44885</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1805,12 +2046,12 @@
       <c r="B21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="39">
-        <f>+C19+7</f>
+      <c r="C21" s="20">
+        <f t="shared" si="1"/>
         <v>44885</v>
       </c>
-      <c r="D21" s="39">
-        <f>+C21+1</f>
+      <c r="D21" s="20">
+        <f t="shared" si="0"/>
         <v>44886</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -1824,12 +2065,12 @@
       <c r="B22" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="39">
-        <f>+C20+7</f>
+      <c r="C22" s="20">
+        <f t="shared" si="1"/>
         <v>44891</v>
       </c>
-      <c r="D22" s="39">
-        <f>+C22+1</f>
+      <c r="D22" s="20">
+        <f t="shared" si="0"/>
         <v>44892</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1840,19 +2081,19 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="C23" s="38"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="C24" s="38"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="C25" s="38"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="C26" s="38"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="C27" s="38"/>
+      <c r="C27" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,6 +2102,231 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BE1E4D-C1CA-49D0-8D47-2D968DC8A6B6}">
+  <dimension ref="B2:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18.75">
+      <c r="B2" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="18.75">
+      <c r="B3" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75">
+      <c r="B4" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18.75">
+      <c r="B5" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18.75">
+      <c r="B6" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="18.75">
+      <c r="B7" s="45"/>
+    </row>
+    <row r="8" spans="2:3" ht="18.75">
+      <c r="B8" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="18.75">
+      <c r="B9" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.75">
+      <c r="B10" s="45"/>
+    </row>
+    <row r="11" spans="2:3" ht="45.75">
+      <c r="B11" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="30">
+      <c r="B26" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="30">
+      <c r="B27" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="45">
+      <c r="B29" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="30">
+      <c r="B30" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
   <dimension ref="A2:S23"/>
   <sheetViews>
@@ -1874,7 +2340,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1933,7 +2399,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="20"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="18" t="s">
         <v>171</v>
       </c>
@@ -2426,11 +2892,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB9BD09-B159-423F-966D-93708C14D31F}">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2444,28 +2910,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -2477,31 +2943,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -2573,15 +3039,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -2653,15 +3119,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -2733,15 +3199,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -2817,15 +3283,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="27"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -2897,15 +3363,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -2977,15 +3443,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3083,12 +3549,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F012C03-EDEE-41EA-B27B-E18596CBA270}">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -3101,28 +3567,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3134,31 +3600,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3226,15 +3692,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3302,15 +3768,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3378,15 +3844,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3454,15 +3920,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="27"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3530,55 +3996,55 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="34" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="34" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="4"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B34" s="33"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="30"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B35" s="34"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="4"/>
     </row>
   </sheetData>
@@ -3609,16 +4075,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED657F-80AA-45F7-9EF7-30C4B7A416C0}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="4" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="30.75" customHeight="1">
+      <c r="C1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:8" ht="48.75" customHeight="1">
+      <c r="B2" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+    </row>
+    <row r="3" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.75">
+      <c r="B5" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75">
+      <c r="B6" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+    </row>
+    <row r="7" spans="2:8" ht="190.5" customHeight="1">
+      <c r="B7" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="2:8" ht="135" customHeight="1">
+      <c r="B8" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B7:H7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684DB233-41AB-42EE-82F9-2B479F48C6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C496C8F-E7AC-492B-8581-BC40C26B4540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
@@ -916,7 +916,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,8 +1041,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,6 +1090,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1276,63 +1290,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1346,17 +1303,80 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,7 +1695,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1796,21 +1816,21 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="56">
         <f t="shared" ref="C8:C22" si="1">+C6+7</f>
         <v>44842</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="56">
         <f t="shared" si="0"/>
         <v>44843</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="55" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2116,7 +2136,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="25" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2124,7 +2144,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="18.75">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="25" t="s">
         <v>230</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2132,7 +2152,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="25" t="s">
         <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2140,7 +2160,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="18.75">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="25" t="s">
         <v>232</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2148,7 +2168,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="18.75">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="25" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2156,10 +2176,10 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="18.75">
-      <c r="B7" s="45"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="2:3" ht="18.75">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="25" t="s">
         <v>235</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2167,7 +2187,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="18.75">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="25" t="s">
         <v>234</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2175,10 +2195,10 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.75">
-      <c r="B10" s="45"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="2:3" ht="45.75">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="25" t="s">
         <v>241</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2186,15 +2206,15 @@
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="27" t="s">
         <v>246</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2234,7 +2254,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="27" t="s">
         <v>251</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2266,10 +2286,10 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="24" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2282,7 +2302,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" ht="30">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="28" t="s">
         <v>272</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2290,7 +2310,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" ht="30">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="28" t="s">
         <v>273</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2306,7 +2326,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" ht="45">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="28" t="s">
         <v>274</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -2314,7 +2334,7 @@
       </c>
     </row>
     <row r="30" spans="2:3" ht="30">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="28" t="s">
         <v>275</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2340,7 +2360,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="32" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -2399,7 +2419,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="25"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="18" t="s">
         <v>171</v>
       </c>
@@ -2910,28 +2930,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -2943,31 +2963,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3039,15 +3059,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3119,15 +3139,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3199,15 +3219,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3283,15 +3303,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="32"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3363,15 +3383,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="32"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3443,15 +3463,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="32"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3524,6 +3544,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3538,11 +3563,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3567,28 +3587,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3600,31 +3620,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3692,15 +3712,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3768,15 +3788,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3844,15 +3864,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3920,15 +3940,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="32"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3996,59 +4016,72 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="32"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="42" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="42" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B33" s="38"/>
-      <c r="C33" s="35"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="4"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="35"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B34" s="38"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="35"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B35" s="39"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4057,19 +4090,6 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4080,7 +4100,7 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4094,26 +4114,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4125,48 +4145,48 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="2:8" ht="18.75">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C496C8F-E7AC-492B-8581-BC40C26B4540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C753A673-47AC-4B4D-8B7C-E44420E19856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="L3" sheetId="4" r:id="rId4"/>
     <sheet name="L4_5" sheetId="6" r:id="rId5"/>
     <sheet name="L6" sheetId="8" r:id="rId6"/>
+    <sheet name="L7" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'L3'!$C$6:$G$40</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="290">
   <si>
     <t>CSV is a method of JavaScript Object Notation.</t>
   </si>
@@ -642,12 +643,6 @@
   </si>
   <si>
     <t>Lesson 10</t>
-  </si>
-  <si>
-    <t>知识回顾：统计、图书馆</t>
-  </si>
-  <si>
-    <t>Knowledge Review: Stats, Libraries</t>
   </si>
   <si>
     <t>Lesson 9</t>
@@ -911,12 +906,37 @@
   <si>
     <t>Answer / 答案：</t>
   </si>
+  <si>
+    <t>Lesson 7 Pre-Test 第七课前摸底测试</t>
+  </si>
+  <si>
+    <t>Get familiar with Pandas dataframe / 熟悉 Pandas DataFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df = df_train.copy() 
+msk = np.random.rand(len(df)) &lt; 0.8
+train = df[msk]
+test=df[~msk]
+</t>
+  </si>
+  <si>
+    <t>Describe the following python statements.  df_train is our training set. what is the purpose? / 描述一下几行程序。 df_train 是我们的训练集 dataframe 目的是什么？</t>
+  </si>
+  <si>
+    <t>Review Last Lesson. What are the three areas of EDA on a dataset /复习上一课， 对数据包进行EDA分析 的三个基本面是什么？</t>
+  </si>
+  <si>
+    <t>Knowledge Review: Stats, Libraries / Catch up</t>
+  </si>
+  <si>
+    <t>知识回顾：统计、图书馆 / 补习</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,16 +1061,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,6 +1108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1372,10 +1390,46 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,39 +1763,39 @@
     <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="23"/>
       <c r="C2" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C3" s="22">
         <v>44800</v>
       </c>
       <c r="D3" s="22">
-        <f t="shared" ref="D3:D22" si="0">+C3+1</f>
+        <f t="shared" ref="D3:D9" si="0">+C3+1</f>
         <v>44801</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="22">
         <f>+C3+7</f>
@@ -1752,15 +1806,15 @@
         <v>44808</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="22">
         <f>+C4+21</f>
@@ -1771,15 +1825,15 @@
         <v>44829</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="22">
         <f>+C5+7</f>
@@ -1790,105 +1844,102 @@
         <v>44836</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B7" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="22">
         <f>+C5+8</f>
         <v>44836</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="22">
         <f t="shared" si="0"/>
         <v>44837</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>209</v>
+      <c r="E7" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="56">
+      <c r="B8" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="68">
         <f t="shared" ref="C8:C22" si="1">+C6+7</f>
         <v>44842</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="68">
         <f t="shared" si="0"/>
         <v>44843</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>207</v>
+      <c r="E8" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="20">
-        <f t="shared" si="1"/>
-        <v>44843</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="B9" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="66">
+        <f>+C8+7</f>
+        <v>44849</v>
+      </c>
+      <c r="D9" s="66">
         <f t="shared" si="0"/>
-        <v>44844</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>204</v>
+        <v>44850</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="20">
-        <f t="shared" si="1"/>
-        <v>44849</v>
+        <v>201</v>
+      </c>
+      <c r="C10" s="20" t="e">
+        <f>+#REF!+7</f>
+        <v>#REF!</v>
       </c>
       <c r="D10" s="20">
-        <f t="shared" si="0"/>
-        <v>44850</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>201</v>
+        <f>+D9+7</f>
+        <v>44857</v>
+      </c>
+      <c r="E10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="20">
-        <f t="shared" si="1"/>
-        <v>44850</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C11" s="20"/>
       <c r="D11" s="20">
-        <f t="shared" si="0"/>
-        <v>44851</v>
+        <f>+D10+7</f>
+        <v>44864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.25" customHeight="1">
@@ -1896,12 +1947,12 @@
         <v>197</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" si="1"/>
+        <f>+C9+7</f>
         <v>44856</v>
       </c>
       <c r="D12" s="20">
-        <f t="shared" si="0"/>
-        <v>44857</v>
+        <f t="shared" ref="D12:D22" si="2">+D11+7</f>
+        <v>44871</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>194</v>
@@ -1914,13 +1965,13 @@
       <c r="B13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="20">
-        <f t="shared" si="1"/>
-        <v>44857</v>
+      <c r="C13" s="20" t="e">
+        <f>+C10+7</f>
+        <v>#REF!</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" si="0"/>
-        <v>44858</v>
+        <f t="shared" si="2"/>
+        <v>44878</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>194</v>
@@ -1938,8 +1989,8 @@
         <v>44863</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="0"/>
-        <v>44864</v>
+        <f t="shared" si="2"/>
+        <v>44885</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>194</v>
@@ -1952,13 +2003,13 @@
       <c r="B15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>44864</v>
+        <v>#REF!</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" si="0"/>
-        <v>44865</v>
+        <f t="shared" si="2"/>
+        <v>44892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>191</v>
@@ -1976,8 +2027,8 @@
         <v>44870</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="0"/>
-        <v>44871</v>
+        <f t="shared" si="2"/>
+        <v>44899</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>187</v>
@@ -1990,19 +2041,19 @@
       <c r="B17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>44871</v>
+        <v>#REF!</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="0"/>
-        <v>44872</v>
+        <f t="shared" si="2"/>
+        <v>44906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="14.25" customHeight="1">
@@ -2014,27 +2065,27 @@
         <v>44877</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="0"/>
-        <v>44878</v>
+        <f t="shared" si="2"/>
+        <v>44913</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="14.25" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>44878</v>
+        <v>#REF!</v>
       </c>
       <c r="D19" s="20">
-        <f t="shared" si="0"/>
-        <v>44879</v>
+        <f t="shared" si="2"/>
+        <v>44920</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>183</v>
@@ -2052,8 +2103,8 @@
         <v>44884</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" si="0"/>
-        <v>44885</v>
+        <f t="shared" si="2"/>
+        <v>44927</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>180</v>
@@ -2066,13 +2117,13 @@
       <c r="B21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>44885</v>
+        <v>#REF!</v>
       </c>
       <c r="D21" s="20">
-        <f t="shared" si="0"/>
-        <v>44886</v>
+        <f t="shared" si="2"/>
+        <v>44934</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>177</v>
@@ -2090,8 +2141,8 @@
         <v>44891</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" si="0"/>
-        <v>44892</v>
+        <f t="shared" si="2"/>
+        <v>44941</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>174</v>
@@ -2112,10 +2163,8 @@
     <row r="26" spans="2:6">
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="2:6">
-      <c r="C27" s="19"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2137,42 +2186,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75">
       <c r="B2" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="18.75">
       <c r="B3" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.75">
       <c r="B4" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18.75">
       <c r="B5" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="18.75">
       <c r="B6" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="18.75">
@@ -2180,18 +2229,18 @@
     </row>
     <row r="8" spans="2:3" ht="18.75">
       <c r="B8" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="18.75">
       <c r="B9" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.75">
@@ -2199,146 +2248,146 @@
     </row>
     <row r="11" spans="2:3" ht="45.75">
       <c r="B11" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30">
       <c r="B26" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30">
       <c r="B27" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45">
       <c r="B29" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30">
       <c r="B30" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4099,7 +4148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED657F-80AA-45F7-9EF7-30C4B7A416C0}">
   <dimension ref="B1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -4115,7 +4164,7 @@
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
       <c r="B2" s="53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -4146,7 +4195,7 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -4157,7 +4206,7 @@
     </row>
     <row r="6" spans="2:8" ht="18.75">
       <c r="B6" s="51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4168,7 +4217,7 @@
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1">
       <c r="B7" s="54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -4179,7 +4228,7 @@
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
       <c r="B8" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
@@ -4200,4 +4249,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42FCA7E-5394-415B-942D-5E898CEFCE7A}">
+  <dimension ref="B1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="30.75" customHeight="1">
+      <c r="C1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:8" ht="48.75" customHeight="1">
+      <c r="B2" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B3" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.75">
+      <c r="B5" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1">
+      <c r="B6" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="2:8" ht="128.25" customHeight="1">
+      <c r="B7" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="2:8" ht="135" customHeight="1">
+      <c r="B8" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75">
+      <c r="B9" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="2:8" ht="165" customHeight="1">
+      <c r="B10" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C753A673-47AC-4B4D-8B7C-E44420E19856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3705ECBC-E2D9-4CEE-8BEE-03651238C2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -1321,12 +1321,39 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1336,21 +1363,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1419,18 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1870,40 +1870,40 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="35">
         <f t="shared" ref="C8:C22" si="1">+C6+7</f>
         <v>44842</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="35">
         <f t="shared" si="0"/>
         <v>44843</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="34" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="33">
         <f>+C8+7</f>
         <v>44849</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>44850</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="32" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -2468,7 +2468,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="33"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="18" t="s">
         <v>171</v>
       </c>
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB9BD09-B159-423F-966D-93708C14D31F}">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -2979,28 +2979,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3012,31 +3012,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3108,15 +3108,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3188,15 +3188,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3268,15 +3268,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3352,15 +3352,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3432,15 +3432,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="35"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3512,15 +3512,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="35"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3593,11 +3593,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3612,6 +3607,11 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3622,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F012C03-EDEE-41EA-B27B-E18596CBA270}">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -3636,28 +3636,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3669,31 +3669,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3761,15 +3761,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3837,15 +3837,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3913,15 +3913,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3989,15 +3989,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4065,72 +4065,59 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="35"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="46" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="46" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B33" s="46"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="4"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B34" s="46"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B35" s="47"/>
-      <c r="C35" s="44"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="44"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4139,6 +4126,19 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4148,7 +4148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED657F-80AA-45F7-9EF7-30C4B7A416C0}">
   <dimension ref="B1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -4163,26 +4163,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4194,48 +4194,48 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" ht="18.75">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4255,8 +4255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42FCA7E-5394-415B-942D-5E898CEFCE7A}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4270,26 +4270,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4301,70 +4301,70 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3705ECBC-E2D9-4CEE-8BEE-03651238C2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B07E89C-B11E-404F-A79D-3455DB338648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="L4_5" sheetId="6" r:id="rId5"/>
     <sheet name="L6" sheetId="8" r:id="rId6"/>
     <sheet name="L7" sheetId="12" r:id="rId7"/>
+    <sheet name="L8" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'L3'!$C$6:$G$40</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="297">
   <si>
     <t>CSV is a method of JavaScript Object Notation.</t>
   </si>
@@ -525,9 +526,6 @@
     <t>L7</t>
   </si>
   <si>
-    <t>L8</t>
-  </si>
-  <si>
     <t>L9</t>
   </si>
   <si>
@@ -649,9 +647,6 @@
   </si>
   <si>
     <t>特征工程</t>
-  </si>
-  <si>
-    <t>Feature Engineering</t>
   </si>
   <si>
     <t>Lesson 8</t>
@@ -931,12 +926,39 @@
   <si>
     <t>知识回顾：统计、图书馆 / 补习</t>
   </si>
+  <si>
+    <t>Feature Engineering / Feature Selection</t>
+  </si>
+  <si>
+    <t>Lesson 8  Pre-Test 第八课前摸底测试</t>
+  </si>
+  <si>
+    <t>Lesson 8 -A</t>
+  </si>
+  <si>
+    <t>Lesson 8-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Engineering   </t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>L8A</t>
+  </si>
+  <si>
+    <t>L8B</t>
+  </si>
+  <si>
+    <t>No Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1078,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1250,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1339,6 +1369,15 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1354,15 +1393,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1432,6 +1462,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,15 +1792,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.85546875" bestFit="1" customWidth="1"/>
@@ -1763,405 +1810,436 @@
     <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="23"/>
       <c r="C2" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" s="22">
         <v>44800</v>
       </c>
       <c r="D3" s="22">
-        <f t="shared" ref="D3:D9" si="0">+C3+1</f>
+        <f>+C3+1</f>
         <v>44801</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" s="22">
         <f>+C3+7</f>
         <v>44807</v>
       </c>
       <c r="D4" s="22">
-        <f t="shared" si="0"/>
+        <f>+C4+1</f>
         <v>44808</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="22">
         <f>+C4+21</f>
         <v>44828</v>
       </c>
       <c r="D5" s="22">
-        <f t="shared" si="0"/>
+        <f>+C5+1</f>
         <v>44829</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="22">
         <f>+C5+7</f>
         <v>44835</v>
       </c>
       <c r="D6" s="22">
-        <f t="shared" si="0"/>
+        <f>+C6+1</f>
         <v>44836</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" s="22">
         <f>+C5+8</f>
         <v>44836</v>
       </c>
       <c r="D7" s="22">
-        <f t="shared" si="0"/>
+        <f>+C7+1</f>
         <v>44837</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="35">
-        <f t="shared" ref="C8:C22" si="1">+C6+7</f>
+        <f t="shared" ref="C8:C24" si="0">+C6+7</f>
         <v>44842</v>
       </c>
       <c r="D8" s="35">
-        <f t="shared" si="0"/>
+        <f>+C8+1</f>
         <v>44843</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="B9" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="22">
         <f>+C8+7</f>
         <v>44849</v>
       </c>
-      <c r="D9" s="33">
-        <f t="shared" si="0"/>
+      <c r="D9" s="22">
+        <f>+C9+1</f>
         <v>44850</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>202</v>
+      <c r="E9" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="20" t="e">
-        <f>+#REF!+7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="B10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="72">
+        <v>44857</v>
+      </c>
+      <c r="D10" s="72">
         <f>+D9+7</f>
         <v>44857</v>
       </c>
-      <c r="E10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>199</v>
+      <c r="E10" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="33">
+        <v>44859</v>
+      </c>
+      <c r="D11" s="33">
+        <v>44859</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20">
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="75">
+        <v>44862</v>
+      </c>
+      <c r="D12" s="75">
+        <v>44862</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="76"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20">
         <f>+D10+7</f>
         <v>44864</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="E13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="20">
         <f>+C9+7</f>
         <v>44856</v>
       </c>
-      <c r="D12" s="20">
-        <f t="shared" ref="D12:D22" si="2">+D11+7</f>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:D24" si="1">+D13+7</f>
         <v>44871</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="20">
+        <f>+C10+7</f>
+        <v>44864</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="1"/>
+        <v>44878</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="C16" s="20">
+        <f t="shared" si="0"/>
+        <v>44863</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="1"/>
+        <v>44885</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="20" t="e">
-        <f>+C10+7</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="20">
-        <f t="shared" si="2"/>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="0"/>
+        <v>44871</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="1"/>
+        <v>44892</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" si="0"/>
+        <v>44870</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="1"/>
+        <v>44899</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30">
+      <c r="B19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="20">
+        <f t="shared" si="0"/>
         <v>44878</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="D19" s="20">
         <f t="shared" si="1"/>
-        <v>44863</v>
-      </c>
-      <c r="D14" s="20">
-        <f t="shared" si="2"/>
+        <v>44906</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="20">
+        <f t="shared" si="0"/>
+        <v>44877</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" si="1"/>
+        <v>44913</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="20">
+        <f t="shared" si="0"/>
         <v>44885</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="20" t="e">
+      <c r="D21" s="20">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="20">
-        <f t="shared" si="2"/>
+        <v>44920</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="20">
+        <f t="shared" si="0"/>
+        <v>44884</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="1"/>
+        <v>44927</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="20">
+        <f t="shared" si="0"/>
         <v>44892</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="D23" s="20">
         <f t="shared" si="1"/>
-        <v>44870</v>
-      </c>
-      <c r="D16" s="20">
-        <f t="shared" si="2"/>
-        <v>44899</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="30">
-      <c r="B17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="20" t="e">
+        <v>44934</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" si="0"/>
+        <v>44891</v>
+      </c>
+      <c r="D24" s="20">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="20">
-        <f t="shared" si="2"/>
-        <v>44906</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B18" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="20">
-        <f t="shared" si="1"/>
-        <v>44877</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="2"/>
-        <v>44913</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="2"/>
-        <v>44920</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="20">
-        <f t="shared" si="1"/>
-        <v>44884</v>
-      </c>
-      <c r="D20" s="20">
-        <f t="shared" si="2"/>
-        <v>44927</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="2"/>
-        <v>44934</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="20">
-        <f t="shared" si="1"/>
-        <v>44891</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="2"/>
         <v>44941</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="C24" s="19"/>
+      <c r="F24" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="C25" s="19"/>
     </row>
     <row r="26" spans="2:6">
       <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2186,42 +2264,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75">
       <c r="B2" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="18.75">
       <c r="B3" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.75">
       <c r="B4" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18.75">
       <c r="B5" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="18.75">
       <c r="B6" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="18.75">
@@ -2229,18 +2307,18 @@
     </row>
     <row r="8" spans="2:3" ht="18.75">
       <c r="B8" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="18.75">
       <c r="B9" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.75">
@@ -2248,146 +2326,146 @@
     </row>
     <row r="11" spans="2:3" ht="45.75">
       <c r="B11" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30">
       <c r="B26" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30">
       <c r="B27" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45">
       <c r="B29" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30">
       <c r="B30" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2397,18 +2475,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
-  <dimension ref="A2:S23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="1" spans="1:20">
+      <c r="A1" s="19">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30.75" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>132</v>
       </c>
@@ -2428,52 +2516,55 @@
         <v>157</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="S2" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:20" ht="30.75" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -2491,8 +2582,9 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" ht="30.75" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>133</v>
       </c>
@@ -2514,8 +2606,9 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="30.75" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>134</v>
       </c>
@@ -2537,8 +2630,9 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="30.75" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>135</v>
       </c>
@@ -2560,8 +2654,9 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="30.75" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>136</v>
       </c>
@@ -2583,8 +2678,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="30.75" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>137</v>
       </c>
@@ -2606,8 +2702,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="30.75" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>138</v>
       </c>
@@ -2629,8 +2726,9 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="30.75" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>139</v>
       </c>
@@ -2652,8 +2750,9 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="30.75" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>140</v>
       </c>
@@ -2675,8 +2774,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="30.75" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>141</v>
       </c>
@@ -2698,8 +2798,9 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="30.75" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>142</v>
       </c>
@@ -2721,8 +2822,9 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="30.75" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>143</v>
       </c>
@@ -2744,8 +2846,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="30.75" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>144</v>
       </c>
@@ -2767,8 +2870,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" ht="30.75" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>145</v>
       </c>
@@ -2790,8 +2894,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" ht="30.75" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>146</v>
       </c>
@@ -2813,8 +2918,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" ht="30.75" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>147</v>
       </c>
@@ -2836,8 +2942,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" ht="30.75" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>148</v>
       </c>
@@ -2859,8 +2966,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" ht="30.75" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>149</v>
       </c>
@@ -2882,8 +2990,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" ht="30.75" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>150</v>
       </c>
@@ -2905,8 +3014,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" ht="30.75" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>151</v>
       </c>
@@ -2928,8 +3038,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" ht="30.75" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>152</v>
       </c>
@@ -2951,6 +3062,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2958,6 +3070,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2965,7 +3078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB9BD09-B159-423F-966D-93708C14D31F}">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -2979,28 +3092,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3012,31 +3125,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3108,15 +3221,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3188,15 +3301,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3268,15 +3381,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3352,15 +3465,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3432,15 +3545,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3512,15 +3625,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="44"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3593,6 +3706,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3607,11 +3725,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3636,28 +3749,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3669,31 +3782,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3761,15 +3874,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3837,15 +3950,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3913,15 +4026,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3989,15 +4102,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4065,15 +4178,15 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -4118,6 +4231,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4126,19 +4252,6 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4164,7 +4277,7 @@
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
       <c r="B2" s="57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -4174,15 +4287,15 @@
       <c r="H2" s="57"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4195,7 +4308,7 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -4206,7 +4319,7 @@
     </row>
     <row r="6" spans="2:8" ht="18.75">
       <c r="B6" s="55" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -4217,7 +4330,7 @@
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1">
       <c r="B7" s="58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -4228,7 +4341,7 @@
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
       <c r="B8" s="56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -4271,7 +4384,7 @@
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
       <c r="B2" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -4281,15 +4394,15 @@
       <c r="H2" s="57"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4302,7 +4415,7 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -4313,7 +4426,7 @@
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
       <c r="B6" s="63" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
@@ -4324,7 +4437,7 @@
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
       <c r="B7" s="66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="67"/>
@@ -4335,7 +4448,7 @@
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
       <c r="B8" s="60" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -4346,7 +4459,7 @@
     </row>
     <row r="9" spans="2:8" ht="18.75">
       <c r="B9" s="59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
@@ -4357,8 +4470,127 @@
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
       <c r="B10" s="60" t="s">
-        <v>282</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F152662F-26A0-4073-A978-3610F3EB37B9}">
+  <dimension ref="B1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="30.75" customHeight="1">
+      <c r="C1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:8" ht="48.75" customHeight="1">
+      <c r="B2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B3" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.75">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+    </row>
+    <row r="7" spans="2:8" ht="128.25" customHeight="1">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="2:8" ht="135" customHeight="1">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="2:8" ht="165" customHeight="1">
+      <c r="B10" s="60"/>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B07E89C-B11E-404F-A79D-3455DB338648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3479405-4045-4832-8E00-D0FAA1ED56A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="L6" sheetId="8" r:id="rId6"/>
     <sheet name="L7" sheetId="12" r:id="rId7"/>
     <sheet name="L8" sheetId="13" r:id="rId8"/>
+    <sheet name="L9" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'L3'!$C$6:$G$40</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="297">
   <si>
     <t>CSV is a method of JavaScript Object Notation.</t>
   </si>
@@ -560,12 +561,6 @@
   </si>
   <si>
     <t>L20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 满分：7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 满分：6</t>
   </si>
   <si>
     <t>复习和考试检查</t>
@@ -921,9 +916,6 @@
     <t>Review Last Lesson. What are the three areas of EDA on a dataset /复习上一课， 对数据包进行EDA分析 的三个基本面是什么？</t>
   </si>
   <si>
-    <t>Knowledge Review: Stats, Libraries / Catch up</t>
-  </si>
-  <si>
     <t>知识回顾：统计、图书馆 / 补习</t>
   </si>
   <si>
@@ -936,22 +928,31 @@
     <t>Lesson 8 -A</t>
   </si>
   <si>
-    <t>Lesson 8-B</t>
-  </si>
-  <si>
     <t xml:space="preserve">Feature Engineering   </t>
   </si>
   <si>
     <t>Feature Selection</t>
   </si>
   <si>
-    <t>L8A</t>
-  </si>
-  <si>
-    <t>L8B</t>
-  </si>
-  <si>
     <t>No Test</t>
+  </si>
+  <si>
+    <t>满分</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Knowledge Review / Strategies / Mid-term Examination</t>
+  </si>
+  <si>
+    <t>特征选择</t>
+  </si>
+  <si>
+    <t>Lesson 9  Pre-Test 第八课前摸底测试</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1363,105 +1364,6 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,13 +1373,106 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1792,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
-  <dimension ref="B2:F28"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B2" sqref="B2:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1810,171 +1805,171 @@
     <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="23"/>
       <c r="C2" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="22">
         <v>44800</v>
       </c>
       <c r="D3" s="22">
-        <f>+C3+1</f>
+        <f t="shared" ref="D3:D9" si="0">+C3+1</f>
         <v>44801</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="22">
         <f>+C3+7</f>
         <v>44807</v>
       </c>
       <c r="D4" s="22">
-        <f>+C4+1</f>
+        <f t="shared" si="0"/>
         <v>44808</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="22">
         <f>+C4+21</f>
         <v>44828</v>
       </c>
       <c r="D5" s="22">
-        <f>+C5+1</f>
+        <f t="shared" si="0"/>
         <v>44829</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="22">
         <f>+C5+7</f>
         <v>44835</v>
       </c>
       <c r="D6" s="22">
-        <f>+C6+1</f>
+        <f t="shared" si="0"/>
         <v>44836</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="22">
         <f>+C5+8</f>
         <v>44836</v>
       </c>
       <c r="D7" s="22">
-        <f>+C7+1</f>
+        <f t="shared" si="0"/>
         <v>44837</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C8" s="35">
-        <f t="shared" ref="C8:C24" si="0">+C6+7</f>
+        <f t="shared" ref="C8:C23" si="1">+C6+7</f>
         <v>44842</v>
       </c>
       <c r="D8" s="35">
-        <f>+C8+1</f>
+        <f t="shared" si="0"/>
         <v>44843</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="22">
         <f>+C8+7</f>
         <v>44849</v>
       </c>
       <c r="D9" s="22">
-        <f>+C9+1</f>
+        <f t="shared" si="0"/>
         <v>44850</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="72">
+      <c r="B10" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="39">
         <v>44857</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="39">
         <f>+D9+7</f>
         <v>44857</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>198</v>
+      <c r="E10" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C11" s="33">
         <v>44859</v>
@@ -1982,252 +1977,240 @@
       <c r="D11" s="33">
         <v>44859</v>
       </c>
-      <c r="E11" s="69" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>198</v>
+      <c r="E11" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="75">
-        <v>44862</v>
-      </c>
-      <c r="D12" s="75">
-        <v>44862</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" s="76"/>
+      <c r="B12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20">
+        <f>+D10+7</f>
+        <v>44864</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="20"/>
+        <v>194</v>
+      </c>
+      <c r="C13" s="20">
+        <f>+C9+7</f>
+        <v>44856</v>
+      </c>
       <c r="D13" s="20">
-        <f>+D10+7</f>
-        <v>44864</v>
+        <f t="shared" ref="D13:D23" si="2">+D12+7</f>
+        <v>44871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" s="20">
-        <f>+C9+7</f>
-        <v>44856</v>
+        <f>+C10+7</f>
+        <v>44864</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" ref="D14:D24" si="1">+D13+7</f>
-        <v>44871</v>
+        <f t="shared" si="2"/>
+        <v>44878</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C15" s="20">
-        <f>+C10+7</f>
-        <v>44864</v>
+        <f t="shared" si="1"/>
+        <v>44863</v>
       </c>
       <c r="D15" s="20">
+        <f t="shared" si="2"/>
+        <v>44885</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" si="1"/>
+        <v>44871</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="2"/>
+        <v>44892</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="1"/>
+        <v>44870</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="2"/>
+        <v>44899</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30">
+      <c r="B18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="20">
         <f t="shared" si="1"/>
         <v>44878</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="20">
-        <f t="shared" si="0"/>
-        <v>44863</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="D18" s="20">
+        <f t="shared" si="2"/>
+        <v>44906</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="20">
+        <f t="shared" si="1"/>
+        <v>44877</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="2"/>
+        <v>44913</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="20">
         <f t="shared" si="1"/>
         <v>44885</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="20">
-        <f t="shared" si="0"/>
-        <v>44871</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="D20" s="20">
+        <f t="shared" si="2"/>
+        <v>44920</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="20">
+        <f t="shared" si="1"/>
+        <v>44884</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="2"/>
+        <v>44927</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="20">
         <f t="shared" si="1"/>
         <v>44892</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="20">
-        <f t="shared" si="0"/>
-        <v>44870</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="1"/>
-        <v>44899</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="30">
-      <c r="B19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="20">
-        <f t="shared" si="0"/>
-        <v>44878</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="1"/>
-        <v>44906</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="20">
-        <f t="shared" si="0"/>
-        <v>44877</v>
-      </c>
-      <c r="D20" s="20">
-        <f t="shared" si="1"/>
-        <v>44913</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="20">
-        <f t="shared" si="0"/>
-        <v>44885</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="1"/>
-        <v>44920</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="20">
-        <f t="shared" si="0"/>
-        <v>44884</v>
-      </c>
       <c r="D22" s="20">
-        <f t="shared" si="1"/>
-        <v>44927</v>
+        <f t="shared" si="2"/>
+        <v>44934</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C23" s="20">
-        <f t="shared" si="0"/>
-        <v>44892</v>
+        <f t="shared" si="1"/>
+        <v>44891</v>
       </c>
       <c r="D23" s="20">
-        <f t="shared" si="1"/>
-        <v>44934</v>
+        <f t="shared" si="2"/>
+        <v>44941</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="20">
-        <f t="shared" si="0"/>
-        <v>44891</v>
-      </c>
-      <c r="D24" s="20">
-        <f t="shared" si="1"/>
-        <v>44941</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="2:6">
       <c r="C25" s="19"/>
@@ -2237,9 +2220,6 @@
     </row>
     <row r="27" spans="2:6">
       <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="C28" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2253,7 +2233,7 @@
   <dimension ref="B2:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2264,42 +2244,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75">
       <c r="B2" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="18.75">
       <c r="B3" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.75">
       <c r="B4" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18.75">
       <c r="B5" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="18.75">
       <c r="B6" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="18.75">
@@ -2307,18 +2287,18 @@
     </row>
     <row r="8" spans="2:3" ht="18.75">
       <c r="B8" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="18.75">
       <c r="B9" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.75">
@@ -2326,146 +2306,146 @@
     </row>
     <row r="11" spans="2:3" ht="45.75">
       <c r="B11" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30">
       <c r="B26" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30">
       <c r="B27" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45">
       <c r="B29" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30">
       <c r="B30" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2478,48 +2458,43 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="4.5703125" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="19">
-        <v>44859</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>294</v>
-      </c>
       <c r="H2" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>158</v>
@@ -2558,19 +2533,29 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+    <row r="3" spans="1:20">
+      <c r="A3" s="43"/>
+      <c r="B3" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="18">
+        <v>7</v>
+      </c>
+      <c r="D3" s="18">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>293</v>
+      </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -2584,11 +2569,11 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="1:20" ht="30.75" customHeight="1">
+    <row r="4" spans="1:20">
       <c r="A4" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2608,11 +2593,11 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="30.75" customHeight="1">
+    <row r="5" spans="1:20">
       <c r="A5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2632,11 +2617,11 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="30.75" customHeight="1">
+    <row r="6" spans="1:20">
       <c r="A6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2656,11 +2641,11 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="30.75" customHeight="1">
+    <row r="7" spans="1:20">
       <c r="A7" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2680,11 +2665,11 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="30.75" customHeight="1">
+    <row r="8" spans="1:20">
       <c r="A8" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2704,11 +2689,11 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="30.75" customHeight="1">
+    <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2728,11 +2713,11 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="30.75" customHeight="1">
+    <row r="10" spans="1:20">
       <c r="A10" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2752,11 +2737,11 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="30.75" customHeight="1">
+    <row r="11" spans="1:20">
       <c r="A11" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2776,11 +2761,11 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="30.75" customHeight="1">
+    <row r="12" spans="1:20">
       <c r="A12" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2800,11 +2785,11 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="30.75" customHeight="1">
+    <row r="13" spans="1:20">
       <c r="A13" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2824,11 +2809,11 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="30.75" customHeight="1">
+    <row r="14" spans="1:20">
       <c r="A14" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2848,11 +2833,11 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="30.75" customHeight="1">
+    <row r="15" spans="1:20">
       <c r="A15" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2872,11 +2857,11 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="30.75" customHeight="1">
+    <row r="16" spans="1:20">
       <c r="A16" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2896,11 +2881,11 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="30.75" customHeight="1">
+    <row r="17" spans="1:20">
       <c r="A17" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2920,11 +2905,11 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" ht="30.75" customHeight="1">
+    <row r="18" spans="1:20">
       <c r="A18" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2944,11 +2929,11 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="30.75" customHeight="1">
+    <row r="19" spans="1:20">
       <c r="A19" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2968,11 +2953,11 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="30.75" customHeight="1">
+    <row r="20" spans="1:20">
       <c r="A20" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2992,11 +2977,11 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="30.75" customHeight="1">
+    <row r="21" spans="1:20">
       <c r="A21" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -3016,11 +3001,11 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="30.75" customHeight="1">
+    <row r="22" spans="1:20">
       <c r="A22" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3040,11 +3025,11 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="30.75" customHeight="1">
+    <row r="23" spans="1:20">
       <c r="A23" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3092,28 +3077,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3125,31 +3110,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3221,15 +3206,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3301,15 +3286,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3381,15 +3366,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3465,15 +3450,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="39"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3545,15 +3530,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3625,15 +3610,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="38"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3749,28 +3734,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3782,31 +3767,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3874,15 +3859,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3950,15 +3935,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -4026,15 +4011,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -4102,15 +4087,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="39"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4178,55 +4163,55 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="52" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="52" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B33" s="50"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="4"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B34" s="50"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B35" s="51"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="48"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="4"/>
     </row>
   </sheetData>
@@ -4261,7 +4246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED657F-80AA-45F7-9EF7-30C4B7A416C0}">
   <dimension ref="B1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -4276,26 +4261,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4307,48 +4292,48 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="B5" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:8" ht="18.75">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="2:8" ht="190.5" customHeight="1">
+      <c r="B7" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="2:8" ht="135" customHeight="1">
+      <c r="B8" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="2:8" ht="190.5" customHeight="1">
-      <c r="B7" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4368,7 +4353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42FCA7E-5394-415B-942D-5E898CEFCE7A}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -4383,26 +4368,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4414,70 +4399,70 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1">
+      <c r="B6" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="2:8" ht="135" customHeight="1">
+      <c r="B8" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75">
+      <c r="B9" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4499,7 +4484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F152662F-26A0-4073-A978-3610F3EB37B9}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4514,26 +4499,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4545,58 +4530,177 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9F0B9C-2132-40B9-BF98-357547254E33}">
+  <dimension ref="B1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="30.75" customHeight="1">
+      <c r="C1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:8" ht="48.75" customHeight="1">
+      <c r="B2" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B3" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="2:8" ht="30.75" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.75">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1">
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="2:8" ht="128.25" customHeight="1">
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="2:8" ht="135" customHeight="1">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="2:8" ht="165" customHeight="1">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3479405-4045-4832-8E00-D0FAA1ED56A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D35688-D1F3-4927-9AEF-1050BFB65364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="296">
   <si>
     <t>CSV is a method of JavaScript Object Notation.</t>
   </si>
@@ -916,9 +916,6 @@
     <t>Review Last Lesson. What are the three areas of EDA on a dataset /复习上一课， 对数据包进行EDA分析 的三个基本面是什么？</t>
   </si>
   <si>
-    <t>知识回顾：统计、图书馆 / 补习</t>
-  </si>
-  <si>
     <t>Feature Engineering / Feature Selection</t>
   </si>
   <si>
@@ -959,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,16 +1081,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1133,12 +1122,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1352,27 +1335,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,6 +1348,21 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1389,21 +1372,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1443,7 +1411,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1455,13 +1423,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,6 +1440,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1912,21 +1886,21 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <f t="shared" ref="C8:C23" si="1">+C6+7</f>
         <v>44842</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>44843</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="32" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1950,73 +1924,75 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="22">
         <v>44857</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="22">
         <f>+D9+7</f>
         <v>44857</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="22">
+        <v>44859</v>
+      </c>
+      <c r="D11" s="22">
+        <v>44859</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="33">
-        <v>44859</v>
-      </c>
-      <c r="D11" s="33">
-        <v>44859</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="21" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20">
+      <c r="C12" s="22">
+        <v>44864</v>
+      </c>
+      <c r="D12" s="22">
         <f>+D10+7</f>
         <v>44864</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>295</v>
+      <c r="E12" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="20">
-        <f>+C9+7</f>
-        <v>44856</v>
-      </c>
-      <c r="D13" s="20">
-        <f t="shared" ref="D13:D23" si="2">+D12+7</f>
+      <c r="C13" s="69">
+        <f t="shared" ref="C13" si="2">+C12+7</f>
         <v>44871</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>284</v>
+      <c r="D13" s="69">
+        <f t="shared" ref="C13:D23" si="3">+D12+7</f>
+        <v>44871</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -2024,11 +2000,11 @@
         <v>193</v>
       </c>
       <c r="C14" s="20">
-        <f>+C10+7</f>
-        <v>44864</v>
+        <f t="shared" ref="C14" si="4">+C13+7</f>
+        <v>44878</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44878</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -2043,11 +2019,11 @@
         <v>192</v>
       </c>
       <c r="C15" s="20">
-        <f t="shared" si="1"/>
-        <v>44863</v>
+        <f t="shared" ref="C15" si="5">+C14+7</f>
+        <v>44885</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44885</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -2062,18 +2038,18 @@
         <v>189</v>
       </c>
       <c r="C16" s="20">
-        <f t="shared" si="1"/>
-        <v>44871</v>
+        <f t="shared" ref="C16" si="6">+C15+7</f>
+        <v>44892</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44892</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -2081,11 +2057,11 @@
         <v>186</v>
       </c>
       <c r="C17" s="20">
-        <f t="shared" si="1"/>
-        <v>44870</v>
+        <f t="shared" ref="C17" si="7">+C16+7</f>
+        <v>44899</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44899</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2100,11 +2076,11 @@
         <v>185</v>
       </c>
       <c r="C18" s="20">
-        <f t="shared" si="1"/>
-        <v>44878</v>
+        <f t="shared" ref="C18" si="8">+C17+7</f>
+        <v>44906</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44906</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -2119,11 +2095,11 @@
         <v>182</v>
       </c>
       <c r="C19" s="20">
-        <f t="shared" si="1"/>
-        <v>44877</v>
+        <f t="shared" ref="C19" si="9">+C18+7</f>
+        <v>44913</v>
       </c>
       <c r="D19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44913</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -2138,11 +2114,11 @@
         <v>181</v>
       </c>
       <c r="C20" s="20">
-        <f t="shared" si="1"/>
-        <v>44885</v>
+        <f t="shared" ref="C20" si="10">+C19+7</f>
+        <v>44920</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44920</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -2157,11 +2133,11 @@
         <v>178</v>
       </c>
       <c r="C21" s="20">
-        <f t="shared" si="1"/>
-        <v>44884</v>
+        <f t="shared" ref="C21" si="11">+C20+7</f>
+        <v>44927</v>
       </c>
       <c r="D21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44927</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2176,11 +2152,11 @@
         <v>175</v>
       </c>
       <c r="C22" s="20">
-        <f t="shared" si="1"/>
-        <v>44892</v>
+        <f t="shared" ref="C22" si="12">+C21+7</f>
+        <v>44934</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44934</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -2195,11 +2171,11 @@
         <v>172</v>
       </c>
       <c r="C23" s="20">
-        <f t="shared" si="1"/>
-        <v>44891</v>
+        <f t="shared" ref="C23" si="13">+C22+7</f>
+        <v>44941</v>
       </c>
       <c r="D23" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44941</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -2233,7 +2209,7 @@
   <dimension ref="B2:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2474,10 +2450,10 @@
       <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="18" t="s">
         <v>153</v>
       </c>
@@ -2494,7 +2470,7 @@
         <v>157</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>158</v>
@@ -2534,9 +2510,9 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="43"/>
-      <c r="B3" s="41" t="s">
-        <v>291</v>
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
+        <v>290</v>
       </c>
       <c r="C3" s="18">
         <v>7</v>
@@ -2554,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -3077,28 +3053,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3110,31 +3086,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3206,15 +3182,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3286,15 +3262,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3366,15 +3342,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3450,15 +3426,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3530,15 +3506,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3610,15 +3586,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="45"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3691,11 +3667,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3710,6 +3681,11 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3734,28 +3710,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3767,31 +3743,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3859,15 +3835,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3935,15 +3911,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -4011,15 +3987,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -4087,15 +4063,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4163,72 +4139,59 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="45" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="45" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B33" s="56"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="4"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="53"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B34" s="56"/>
-      <c r="C34" s="53"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="53"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B35" s="57"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="54"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4237,6 +4200,19 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4261,26 +4237,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4292,48 +4268,48 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="2:8" ht="18.75">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4368,26 +4344,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4399,70 +4375,70 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4499,26 +4475,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4530,58 +4506,58 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4603,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9F0B9C-2132-40B9-BF98-357547254E33}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
@@ -4618,26 +4594,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4649,58 +4625,58 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D35688-D1F3-4927-9AEF-1050BFB65364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08319FD9-0483-411C-9D2B-14AB60F750A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="295">
   <si>
     <t>CSV is a method of JavaScript Object Notation.</t>
   </si>
@@ -615,9 +615,6 @@
   </si>
   <si>
     <t>知识复习/期中考试</t>
-  </si>
-  <si>
-    <t>Knowledge Review / Mid-term Examination</t>
   </si>
   <si>
     <t>Lesson 13</t>
@@ -1342,12 +1339,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1363,15 +1375,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1440,12 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="B14:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1779,21 +1776,21 @@
     <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="23"/>
       <c r="C2" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>219</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="22">
         <v>44800</v>
@@ -1803,15 +1800,15 @@
         <v>44801</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="22">
         <f>+C3+7</f>
@@ -1822,15 +1819,15 @@
         <v>44808</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="22">
         <f>+C4+21</f>
@@ -1841,15 +1838,15 @@
         <v>44829</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="22">
         <f>+C5+7</f>
@@ -1860,15 +1857,15 @@
         <v>44836</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="22">
         <f>+C5+8</f>
@@ -1879,18 +1876,18 @@
         <v>44837</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="33">
-        <f t="shared" ref="C8:C23" si="1">+C6+7</f>
+        <f t="shared" ref="C8" si="1">+C6+7</f>
         <v>44842</v>
       </c>
       <c r="D8" s="33">
@@ -1898,15 +1895,15 @@
         <v>44843</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="22">
         <f>+C8+7</f>
@@ -1917,15 +1914,15 @@
         <v>44850</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="22">
         <v>44857</v>
@@ -1935,15 +1932,15 @@
         <v>44857</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="22">
         <v>44859</v>
@@ -1952,15 +1949,15 @@
         <v>44859</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="22">
         <v>44864</v>
@@ -1970,86 +1967,85 @@
         <v>44864</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="69">
-        <f t="shared" ref="C13" si="2">+C12+7</f>
+      <c r="B13" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="22">
+        <v>44870</v>
+      </c>
+      <c r="D13" s="22">
+        <f t="shared" ref="D13:D23" si="2">+D12+7</f>
         <v>44871</v>
       </c>
-      <c r="D13" s="69">
-        <f t="shared" ref="C13:D23" si="3">+D12+7</f>
-        <v>44871</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="F13" s="68" t="s">
+      <c r="E13" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="20">
-        <f t="shared" ref="C14" si="4">+C13+7</f>
+      <c r="B14" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="36">
+        <f t="shared" ref="C14" si="3">+C13+7</f>
+        <v>44877</v>
+      </c>
+      <c r="D14" s="36">
+        <f t="shared" si="2"/>
         <v>44878</v>
       </c>
-      <c r="D14" s="20">
-        <f t="shared" si="3"/>
-        <v>44878</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="35" t="s">
         <v>190</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="20">
-        <f t="shared" ref="C15" si="5">+C14+7</f>
+        <f t="shared" ref="C15" si="4">+C14+7</f>
+        <v>44884</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="2"/>
         <v>44885</v>
       </c>
-      <c r="D15" s="20">
-        <f t="shared" si="3"/>
-        <v>44885</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" ref="C16" si="5">+C15+7</f>
+        <v>44891</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="2"/>
+        <v>44892</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="C16" s="20">
-        <f t="shared" ref="C16" si="6">+C15+7</f>
-        <v>44892</v>
-      </c>
-      <c r="D16" s="20">
-        <f t="shared" si="3"/>
-        <v>44892</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -2057,11 +2053,11 @@
         <v>186</v>
       </c>
       <c r="C17" s="20">
-        <f t="shared" ref="C17" si="7">+C16+7</f>
-        <v>44899</v>
+        <f t="shared" ref="C17" si="6">+C16+7</f>
+        <v>44898</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44899</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2076,18 +2072,18 @@
         <v>185</v>
       </c>
       <c r="C18" s="20">
-        <f t="shared" ref="C18" si="8">+C17+7</f>
+        <f t="shared" ref="C18" si="7">+C17+7</f>
+        <v>44905</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="2"/>
         <v>44906</v>
       </c>
-      <c r="D18" s="20">
-        <f t="shared" si="3"/>
-        <v>44906</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -2095,18 +2091,18 @@
         <v>182</v>
       </c>
       <c r="C19" s="20">
-        <f t="shared" ref="C19" si="9">+C18+7</f>
+        <f t="shared" ref="C19" si="8">+C18+7</f>
+        <v>44912</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="2"/>
         <v>44913</v>
       </c>
-      <c r="D19" s="20">
-        <f t="shared" si="3"/>
-        <v>44913</v>
-      </c>
       <c r="E19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -2114,11 +2110,11 @@
         <v>181</v>
       </c>
       <c r="C20" s="20">
-        <f t="shared" ref="C20" si="10">+C19+7</f>
-        <v>44920</v>
+        <f t="shared" ref="C20" si="9">+C19+7</f>
+        <v>44919</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44920</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -2133,11 +2129,11 @@
         <v>178</v>
       </c>
       <c r="C21" s="20">
-        <f t="shared" ref="C21" si="11">+C20+7</f>
-        <v>44927</v>
+        <f t="shared" ref="C21" si="10">+C20+7</f>
+        <v>44926</v>
       </c>
       <c r="D21" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44927</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2152,11 +2148,11 @@
         <v>175</v>
       </c>
       <c r="C22" s="20">
-        <f t="shared" ref="C22" si="12">+C21+7</f>
-        <v>44934</v>
+        <f t="shared" ref="C22" si="11">+C21+7</f>
+        <v>44933</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44934</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -2171,11 +2167,11 @@
         <v>172</v>
       </c>
       <c r="C23" s="20">
-        <f t="shared" ref="C23" si="13">+C22+7</f>
-        <v>44941</v>
+        <f t="shared" ref="C23" si="12">+C22+7</f>
+        <v>44940</v>
       </c>
       <c r="D23" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44941</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -2220,42 +2216,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75">
       <c r="B2" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="18.75">
       <c r="B3" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.75">
       <c r="B4" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18.75">
       <c r="B5" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="18.75">
       <c r="B6" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="18.75">
@@ -2263,18 +2259,18 @@
     </row>
     <row r="8" spans="2:3" ht="18.75">
       <c r="B8" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="18.75">
       <c r="B9" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.75">
@@ -2282,146 +2278,146 @@
     </row>
     <row r="11" spans="2:3" ht="45.75">
       <c r="B11" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>264</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30">
       <c r="B26" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30">
       <c r="B27" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45">
       <c r="B29" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30">
       <c r="B30" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2433,15 +2429,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="20" width="4.5703125" customWidth="1"/>
+    <col min="3" max="8" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="4.5703125" customWidth="1"/>
     <col min="21" max="21" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2450,7 +2447,7 @@
       <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="34"/>
@@ -2470,7 +2467,7 @@
         <v>157</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>158</v>
@@ -2510,9 +2507,9 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="18">
         <v>7</v>
@@ -2530,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -3053,28 +3050,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3086,31 +3083,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3182,15 +3179,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="43"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3262,15 +3259,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3342,15 +3339,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="43"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3426,15 +3423,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3506,15 +3503,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="42"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="43"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3586,15 +3583,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="42"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="43"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3667,6 +3664,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3681,11 +3683,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3710,28 +3707,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3743,31 +3740,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3835,15 +3832,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="43"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3911,15 +3908,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3987,15 +3984,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="43"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -4063,15 +4060,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4139,59 +4136,72 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="42"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="43"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="47" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="47" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B33" s="49"/>
-      <c r="C33" s="46"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="4"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="46"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B34" s="49"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="46"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B35" s="50"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4200,19 +4210,6 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4237,26 +4234,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4268,48 +4265,48 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75">
+      <c r="B6" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="2:8" ht="190.5" customHeight="1">
+      <c r="B7" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="2:8" ht="135" customHeight="1">
+      <c r="B8" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-    </row>
-    <row r="6" spans="2:8" ht="18.75">
-      <c r="B6" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="2:8" ht="190.5" customHeight="1">
-      <c r="B7" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-    </row>
-    <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4344,26 +4341,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4375,70 +4372,70 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1">
+      <c r="B6" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+    </row>
+    <row r="7" spans="2:8" ht="128.25" customHeight="1">
+      <c r="B7" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="62" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="2:8" ht="135" customHeight="1">
+      <c r="B8" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75">
+      <c r="B9" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-    </row>
-    <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-    </row>
-    <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="B10" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4475,26 +4472,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4506,58 +4503,58 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4594,26 +4591,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4625,58 +4622,58 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="2:8" ht="128.25" customHeight="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="2:8" ht="135" customHeight="1">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="2:8" ht="18.75">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="2:8" ht="165" customHeight="1">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08319FD9-0483-411C-9D2B-14AB60F750A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEC020-968D-4199-ADEC-51D363B702C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -1351,6 +1351,21 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1359,21 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1992,40 +1992,40 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="22">
         <f t="shared" ref="C14" si="3">+C13+7</f>
         <v>44877</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="22">
         <f t="shared" si="2"/>
         <v>44878</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="36">
         <f t="shared" ref="C15" si="4">+C14+7</f>
         <v>44884</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="36">
         <f t="shared" si="2"/>
         <v>44885</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="35" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3050,28 +3050,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3083,31 +3083,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3179,15 +3179,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3259,15 +3259,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3339,15 +3339,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3423,15 +3423,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3503,15 +3503,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3583,15 +3583,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="39"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="40"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3664,11 +3664,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3683,6 +3678,11 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3707,28 +3707,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3740,31 +3740,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3832,15 +3832,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3908,15 +3908,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3984,15 +3984,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -4060,15 +4060,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4136,15 +4136,15 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -4189,19 +4189,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4210,6 +4197,19 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4245,15 +4245,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4352,15 +4352,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4483,15 +4483,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4602,15 +4602,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEC020-968D-4199-ADEC-51D363B702C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC2C64-EDDB-452D-81DC-9D61A06F5BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -1351,6 +1351,15 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,15 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2011,40 +2011,40 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="22">
         <f t="shared" ref="C15" si="4">+C14+7</f>
         <v>44884</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="22">
         <f t="shared" si="2"/>
         <v>44885</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="36">
         <f t="shared" ref="C16" si="5">+C15+7</f>
         <v>44891</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="36">
         <f t="shared" si="2"/>
         <v>44892</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="35" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3050,28 +3050,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3083,31 +3083,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3179,15 +3179,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3259,15 +3259,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3339,15 +3339,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3423,15 +3423,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3503,15 +3503,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3583,15 +3583,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="45"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3664,6 +3664,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3678,11 +3683,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3707,28 +3707,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3740,31 +3740,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3832,15 +3832,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3908,15 +3908,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3984,15 +3984,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -4060,15 +4060,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4136,15 +4136,15 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -4189,6 +4189,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4197,19 +4210,6 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4245,15 +4245,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4352,15 +4352,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4483,15 +4483,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4602,15 +4602,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC2C64-EDDB-452D-81DC-9D61A06F5BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088422A4-A08E-499C-ADA0-C78F57A009AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -1351,6 +1351,21 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1359,21 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2030,40 +2030,40 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="22">
         <f t="shared" ref="C16" si="5">+C15+7</f>
         <v>44891</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="22">
         <f t="shared" si="2"/>
         <v>44892</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="36">
         <f t="shared" ref="C17" si="6">+C16+7</f>
         <v>44898</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="36">
         <f t="shared" si="2"/>
         <v>44899</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="35" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3050,28 +3050,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3083,31 +3083,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3179,15 +3179,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3259,15 +3259,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3339,15 +3339,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3423,15 +3423,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3503,15 +3503,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3583,15 +3583,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="39"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="40"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3664,11 +3664,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3683,6 +3678,11 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3707,28 +3707,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3740,31 +3740,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3832,15 +3832,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3908,15 +3908,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3984,15 +3984,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -4060,15 +4060,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4136,15 +4136,15 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -4189,19 +4189,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4210,6 +4197,19 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4245,15 +4245,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4352,15 +4352,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4483,15 +4483,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4602,15 +4602,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>

--- a/Classes/PreTests.xlsx
+++ b/Classes/PreTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\pdm\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088422A4-A08E-499C-ADA0-C78F57A009AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D6EBA-0C83-4DB6-B6B0-E033025F5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5B194481-7B94-4A7B-8BF6-5CAD6130F3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="9" r:id="rId1"/>
@@ -1351,6 +1351,15 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,15 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1760,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6526930-DE28-4196-B532-8FE7E6CF3CF8}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2427,13 +2427,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6A97C-EB70-4E31-8523-06320B1646C6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -2442,11 +2445,11 @@
     <col min="21" max="21" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="25.5" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>132</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="25.5" customHeight="1">
       <c r="A3" s="38"/>
       <c r="B3" s="34" t="s">
         <v>289</v>
@@ -2542,7 +2545,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="25.5" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>133</v>
       </c>
@@ -2566,7 +2569,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="25.5" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>134</v>
       </c>
@@ -2590,7 +2593,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="25.5" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>135</v>
       </c>
@@ -2614,7 +2617,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="25.5" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>136</v>
       </c>
@@ -2638,7 +2641,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="25.5" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>137</v>
       </c>
@@ -2662,7 +2665,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="25.5" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>138</v>
       </c>
@@ -2686,7 +2689,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="25.5" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>139</v>
       </c>
@@ -2710,7 +2713,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="25.5" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>140</v>
       </c>
@@ -2734,7 +2737,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="25.5" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>141</v>
       </c>
@@ -2758,7 +2761,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="25.5" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>142</v>
       </c>
@@ -2782,7 +2785,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="25.5" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>143</v>
       </c>
@@ -2806,7 +2809,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="25.5" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>144</v>
       </c>
@@ -2830,7 +2833,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="25.5" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>145</v>
       </c>
@@ -2854,7 +2857,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" ht="25.5" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>146</v>
       </c>
@@ -2878,7 +2881,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" ht="25.5" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>147</v>
       </c>
@@ -2902,7 +2905,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" ht="25.5" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>148</v>
       </c>
@@ -2926,7 +2929,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" ht="25.5" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>149</v>
       </c>
@@ -2950,7 +2953,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" ht="25.5" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>150</v>
       </c>
@@ -2974,7 +2977,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" ht="25.5" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>151</v>
       </c>
@@ -2998,7 +3001,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" ht="25.5" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>152</v>
       </c>
@@ -3050,28 +3053,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3083,31 +3086,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3179,15 +3182,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3259,15 +3262,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3339,15 +3342,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="42.75" customHeight="1">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -3423,15 +3426,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -3503,15 +3506,15 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -3583,15 +3586,15 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="5"/>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="45"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="30.75" customHeight="1">
@@ -3664,6 +3667,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B5:C5"/>
@@ -3678,11 +3686,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3707,28 +3710,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="12"/>
@@ -3740,31 +3743,31 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="30.75" customHeight="1">
@@ -3832,15 +3835,15 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" customHeight="1">
@@ -3908,15 +3911,15 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" ht="30.75" customHeight="1">
@@ -3984,15 +3987,15 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="30.75" customHeight="1">
@@ -4060,15 +4063,15 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="30.75" customHeight="1">
@@ -4136,15 +4139,15 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1">
@@ -4189,6 +4192,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B31:C31"/>
@@ -4197,19 +4213,6 @@
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4245,15 +4248,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4352,15 +4355,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4483,15 +4486,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
@@ -4602,15 +4605,15 @@
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="30.75" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="30.75" customHeight="1">
       <c r="B4" s="13"/>
